--- a/input/households/energy_consumption_households/01_existing_countries.xlsx
+++ b/input/households/energy_consumption_households/01_existing_countries.xlsx
@@ -1,30 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\04_Projekte\Nachfragemodell\02_Datensammlung\04_Haushalte\energy_consumption_households\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\endemo\input\households\energy_consumption_households\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8DECCF-EA1F-4497-8D92-CA5B3631D97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6900"/>
+    <workbookView xWindow="33330" yWindow="3300" windowWidth="21060" windowHeight="16800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1a_SpaceHeating" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="74">
   <si>
     <t>country_de</t>
   </si>
@@ -240,12 +252,18 @@
   </si>
   <si>
     <t>Annahme: Serbia</t>
+  </si>
+  <si>
+    <t>Note:</t>
+  </si>
+  <si>
+    <t>If there is an assumption, the energy per capita of the compensatory country was multiplied with population of the missing country</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -556,16 +574,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -573,7 +591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -584,7 +602,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -595,7 +613,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -606,7 +624,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -617,7 +635,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -628,7 +646,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -639,7 +657,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -650,7 +668,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -661,7 +679,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -672,7 +690,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -683,7 +701,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -694,7 +712,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -705,7 +723,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -716,7 +734,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -727,7 +745,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -738,7 +756,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -749,7 +767,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -760,7 +778,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -771,7 +789,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -782,7 +800,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -793,7 +811,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -804,7 +822,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -815,7 +833,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -826,7 +844,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -837,7 +855,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -848,7 +866,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -859,7 +877,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -870,7 +888,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -881,7 +899,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -895,7 +913,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -906,7 +924,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -920,7 +938,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>64</v>
       </c>
@@ -928,7 +946,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>67</v>
       </c>
@@ -939,7 +957,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>69</v>
       </c>
@@ -950,12 +968,20 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>70</v>
       </c>
       <c r="D36" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
